--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/124.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/124.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1413409559268562</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.60294475655267</v>
+        <v>-1.603012439374886</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04271168172589459</v>
+        <v>-0.04271955182150109</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1432112286018222</v>
+        <v>-0.143351316303618</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1416413797462267</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.583740149253681</v>
+        <v>-1.583851117601732</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0740866048707812</v>
+        <v>-0.07405669850747648</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1164812358838939</v>
+        <v>-0.1166465078916305</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1513290936035433</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.632788946102092</v>
+        <v>-1.632885748278052</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1219918768275676</v>
+        <v>-0.1219603964451416</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1122691607152933</v>
+        <v>-0.1124218405700595</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1709439792530681</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.727414253617325</v>
+        <v>-1.727488232516027</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1483645672049607</v>
+        <v>-0.1483535490711116</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1228670314590108</v>
+        <v>-0.1230291554285048</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1901394316000478</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760781884969779</v>
+        <v>-1.760755126644717</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.108744931902701</v>
+        <v>-0.1087622461130354</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1133143094118369</v>
+        <v>-0.1134638412283605</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1944121787627633</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.622254036123226</v>
+        <v>-1.622186353301011</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0443518096502899</v>
+        <v>-0.04436440180326031</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1147088903533093</v>
+        <v>-0.114837959921256</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1738617915667669</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331500437027003</v>
+        <v>-1.331520112266019</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01083149844307046</v>
+        <v>-0.01076381562085453</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1087181735776389</v>
+        <v>-0.1088865936236181</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1239382344791164</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9088227863076439</v>
+        <v>-0.9089109313784367</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01357973582886146</v>
+        <v>-0.01338140941957757</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06862633253898912</v>
+        <v>-0.06879160454672568</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04195499837285725</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3791031782346711</v>
+        <v>-0.3793219668925319</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06248450992767383</v>
+        <v>-0.0621901683519906</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02176620927874634</v>
+        <v>-0.0219141670761486</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0749749016719181</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1890091172355075</v>
+        <v>0.1886345006846379</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1252721326763583</v>
+        <v>-0.1248282592841515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06143644147320802</v>
+        <v>0.06125700329337974</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2289662039403913</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8709009589080275</v>
+        <v>0.8704161610186669</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2564981068191966</v>
+        <v>-0.2559534962032265</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1411526398714814</v>
+        <v>0.1409763497298957</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4156141535555801</v>
       </c>
       <c r="E13" t="n">
-        <v>1.567853015533152</v>
+        <v>1.567215537789026</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4644952895843547</v>
+        <v>-0.4638121652857102</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2594779532961393</v>
+        <v>0.2593158293266453</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6183810308448915</v>
       </c>
       <c r="E14" t="n">
-        <v>2.294741341826295</v>
+        <v>2.293968498437737</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6973682705425488</v>
+        <v>-0.6966017232304754</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3807545525732359</v>
+        <v>0.3805735403742864</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8127833771671847</v>
       </c>
       <c r="E15" t="n">
-        <v>3.029424210808119</v>
+        <v>3.02855377823404</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9469510384924711</v>
+        <v>-0.9461065772338932</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4926405537726528</v>
+        <v>0.4924689856884309</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9856127822411497</v>
       </c>
       <c r="E16" t="n">
-        <v>3.649631817135987</v>
+        <v>3.648778698772241</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.235380598356094</v>
+        <v>-1.234348041812521</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6407856594503522</v>
+        <v>0.6405070580658819</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.140736945120612</v>
       </c>
       <c r="E17" t="n">
-        <v>4.244642525370073</v>
+        <v>4.243748482509174</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.492839757989005</v>
+        <v>-1.491681279915728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7909250473547396</v>
+        <v>0.7906244097025712</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.284517438700511</v>
       </c>
       <c r="E18" t="n">
-        <v>4.772456783296711</v>
+        <v>4.771594220818238</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.735013617934965</v>
+        <v>-1.733812641345413</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9292640139067357</v>
+        <v>0.9288941194132301</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.413598379691583</v>
       </c>
       <c r="E19" t="n">
-        <v>5.202716484123375</v>
+        <v>5.201844477530175</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.027306607731821</v>
+        <v>-2.025972626526519</v>
       </c>
       <c r="G19" t="n">
-        <v>1.074442093540783</v>
+        <v>1.074076921104642</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.515973571270262</v>
       </c>
       <c r="E20" t="n">
-        <v>5.540936990851103</v>
+        <v>5.54003822593284</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.282055306437852</v>
+        <v>-2.280678826716275</v>
       </c>
       <c r="G20" t="n">
-        <v>1.225700609040416</v>
+        <v>1.225316548374818</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.586439332754963</v>
       </c>
       <c r="E21" t="n">
-        <v>5.825366968127502</v>
+        <v>5.824480795362209</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.505890269601537</v>
+        <v>-2.504449255095987</v>
       </c>
       <c r="G21" t="n">
-        <v>1.361965018390537</v>
+        <v>1.361612438107366</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.62842088426944</v>
       </c>
       <c r="E22" t="n">
-        <v>6.030201946477966</v>
+        <v>6.029361420267191</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.71078269964993</v>
+        <v>-2.709369230479002</v>
       </c>
       <c r="G22" t="n">
-        <v>1.477889952655212</v>
+        <v>1.477521632180827</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.644206481260533</v>
       </c>
       <c r="E23" t="n">
-        <v>6.171570899838466</v>
+        <v>6.170665838843719</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.829974510600864</v>
+        <v>-2.828605900974893</v>
       </c>
       <c r="G23" t="n">
-        <v>1.577317592509534</v>
+        <v>1.576936679882179</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.636743995547735</v>
       </c>
       <c r="E24" t="n">
-        <v>6.276340760590482</v>
+        <v>6.275419959404521</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.901501874520571</v>
+        <v>-2.900197012669012</v>
       </c>
       <c r="G24" t="n">
-        <v>1.624632607295832</v>
+        <v>1.624267434859691</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.611826735077547</v>
       </c>
       <c r="E25" t="n">
-        <v>6.293189061264886</v>
+        <v>6.292307610556957</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.979771549346369</v>
+        <v>-2.978461178427886</v>
       </c>
       <c r="G25" t="n">
-        <v>1.673899405792544</v>
+        <v>1.673581453930041</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.574565934795</v>
       </c>
       <c r="E26" t="n">
-        <v>6.280500893128081</v>
+        <v>6.279669811032034</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.040810436851288</v>
+        <v>-3.039500852942366</v>
       </c>
       <c r="G26" t="n">
-        <v>1.692430332907617</v>
+        <v>1.692113955064235</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.529070848091414</v>
       </c>
       <c r="E27" t="n">
-        <v>6.182963650238441</v>
+        <v>6.182192380869004</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.054461904690329</v>
+        <v>-3.053163338915256</v>
       </c>
       <c r="G27" t="n">
-        <v>1.698649282455876</v>
+        <v>1.698342348727222</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.477427732003555</v>
       </c>
       <c r="E28" t="n">
-        <v>6.016800747679213</v>
+        <v>6.016090865055506</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.064847282852671</v>
+        <v>-3.063529041838581</v>
       </c>
       <c r="G28" t="n">
-        <v>1.683779523816948</v>
+        <v>1.683493052336871</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.420478698138366</v>
       </c>
       <c r="E29" t="n">
-        <v>5.844554261216157</v>
+        <v>5.843904191319059</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.020238006935888</v>
+        <v>-3.018980365657969</v>
       </c>
       <c r="G29" t="n">
-        <v>1.646634246573373</v>
+        <v>1.646355645188903</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.358683093558871</v>
       </c>
       <c r="E30" t="n">
-        <v>5.649696990075617</v>
+        <v>5.649109880943372</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.990271043895005</v>
+        <v>-2.989055901133361</v>
       </c>
       <c r="G30" t="n">
-        <v>1.576052081136008</v>
+        <v>1.5758002380766</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.292017643954881</v>
       </c>
       <c r="E31" t="n">
-        <v>5.408573000883565</v>
+        <v>5.408044130458808</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.887086220398138</v>
+        <v>-2.885952926630802</v>
       </c>
       <c r="G31" t="n">
-        <v>1.501301913065438</v>
+        <v>1.501061088139879</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.219646683428205</v>
       </c>
       <c r="E32" t="n">
-        <v>5.177303945409975</v>
+        <v>5.176760908813127</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.825776601604355</v>
+        <v>-2.824631502693609</v>
       </c>
       <c r="G32" t="n">
-        <v>1.427894383305338</v>
+        <v>1.427651984360658</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.141568715298783</v>
       </c>
       <c r="E33" t="n">
-        <v>4.881873148494807</v>
+        <v>4.881361592280384</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.69975826972434</v>
+        <v>-2.698685575693174</v>
       </c>
       <c r="G33" t="n">
-        <v>1.353144215234768</v>
+        <v>1.352941166768121</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.057931432004682</v>
       </c>
       <c r="E34" t="n">
-        <v>4.619304722794154</v>
+        <v>4.618878163612282</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.622880027801772</v>
+        <v>-2.621818351904455</v>
       </c>
       <c r="G34" t="n">
-        <v>1.252348752764036</v>
+        <v>1.252145704297388</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9699100056106956</v>
       </c>
       <c r="E35" t="n">
-        <v>4.302429489370385</v>
+        <v>4.302103667412275</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.54758210107699</v>
+        <v>-2.546588895011449</v>
       </c>
       <c r="G35" t="n">
-        <v>1.160597604164298</v>
+        <v>1.160400851774135</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8791056958123367</v>
       </c>
       <c r="E36" t="n">
-        <v>3.962439785150315</v>
+        <v>3.962129703383419</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.450369106126338</v>
+        <v>-2.449419972596194</v>
       </c>
       <c r="G36" t="n">
-        <v>1.078912307845277</v>
+        <v>1.078784812296452</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7869598998574076</v>
       </c>
       <c r="E37" t="n">
-        <v>3.6785701586811</v>
+        <v>3.678272669067174</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.380864356777503</v>
+        <v>-2.379951425687148</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9927898516233102</v>
+        <v>0.9926434678450292</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6952558998492465</v>
       </c>
       <c r="E38" t="n">
-        <v>3.375173250993028</v>
+        <v>3.374995386832321</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.312835250354887</v>
+        <v>-2.311919958235851</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9024301359268017</v>
+        <v>0.9023183805691892</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6061123110465978</v>
       </c>
       <c r="E39" t="n">
-        <v>3.055442746883219</v>
+        <v>3.055330991525607</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.23338033913075</v>
+        <v>-2.232538238900854</v>
       </c>
       <c r="G39" t="n">
-        <v>0.813468149210008</v>
+        <v>0.8133847261965791</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5202271433848414</v>
       </c>
       <c r="E40" t="n">
-        <v>2.77730412403466</v>
+        <v>2.777124685854832</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.160084564728262</v>
+        <v>-2.159221215240228</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7459710612503919</v>
+        <v>0.7459128225429038</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4381975496439233</v>
       </c>
       <c r="E41" t="n">
-        <v>2.479347026429804</v>
+        <v>2.479211660785372</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.09838931124976</v>
+        <v>-2.097588135517018</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6868540510925807</v>
+        <v>0.6868304408057612</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3610769643623765</v>
       </c>
       <c r="E42" t="n">
-        <v>2.201741996063366</v>
+        <v>2.201660147069058</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.011505816782644</v>
+        <v>-2.010745565547056</v>
       </c>
       <c r="G42" t="n">
-        <v>0.614019464292634</v>
+        <v>0.6140367785029683</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2905942519144309</v>
       </c>
       <c r="E43" t="n">
-        <v>1.948844343843984</v>
+        <v>1.948764068868798</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.948661529345593</v>
+        <v>-1.947899704090883</v>
       </c>
       <c r="G43" t="n">
-        <v>0.544476151475327</v>
+        <v>0.5444619853032353</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2270552477458593</v>
       </c>
       <c r="E44" t="n">
-        <v>1.747399802680801</v>
+        <v>1.747299065457038</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.895979109355659</v>
+        <v>-1.895262930655467</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4778762544148523</v>
+        <v>0.4778668103001245</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1708796967965969</v>
       </c>
       <c r="E45" t="n">
-        <v>1.533065618933286</v>
+        <v>1.533037286589103</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.810550008556625</v>
+        <v>-1.809845634999842</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4270858054087217</v>
+        <v>0.4270700652175087</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1214042220216555</v>
       </c>
       <c r="E46" t="n">
-        <v>1.337885673872879</v>
+        <v>1.337822713108027</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.750375257549299</v>
+        <v>-1.749700790355822</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3739673821221874</v>
+        <v>0.3740098806384625</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.07833207294678311</v>
       </c>
       <c r="E47" t="n">
-        <v>1.182459155740043</v>
+        <v>1.182433971434102</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.718540720820993</v>
+        <v>-1.717887502885653</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3273827122081722</v>
+        <v>0.3273701200552018</v>
       </c>
     </row>
     <row r="48">
@@ -1537,10 +1537,10 @@
         <v>0.04220705604796697</v>
       </c>
       <c r="E48" t="n">
-        <v>1.004738230773104</v>
+        <v>1.004757119002559</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.656079707039978</v>
+        <v>-1.655420980037714</v>
       </c>
       <c r="G48" t="n">
         <v>0.2561189964912836</v>
@@ -1560,13 +1560,13 @@
         <v>0.01259716973718082</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8584725039262373</v>
+        <v>0.8584882441174503</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.605936966902263</v>
+        <v>-1.605272730833074</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2212135484573195</v>
+        <v>0.2212277146294112</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.01185196608613254</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7586891357505015</v>
+        <v>0.7587158940755636</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.555898112026553</v>
+        <v>-1.555196886508014</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1793824162896324</v>
+        <v>0.1793934344234816</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.03233579507831677</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6432537214325517</v>
+        <v>0.6432789057384924</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.51899680774678</v>
+        <v>-1.518277481008346</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1454843404933008</v>
+        <v>0.1454890625506647</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.05084391381900612</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5368374366796548</v>
+        <v>0.5368232705075631</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.474413503145499</v>
+        <v>-1.47372565678949</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1056474905523017</v>
+        <v>0.1056726748582426</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06900190598745008</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4695858957029616</v>
+        <v>0.4695213609189882</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.433235588913151</v>
+        <v>-1.432611490331556</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07406007482603953</v>
+        <v>0.07406951894076734</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.08746101167284369</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3801768875557186</v>
+        <v>0.3800242077009524</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.383007851742886</v>
+        <v>-1.382316857348635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0426143208206944</v>
+        <v>0.04265209727960562</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1071495361595261</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2916162757148567</v>
+        <v>0.2914006350952385</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.351201647358763</v>
+        <v>-1.3505208840888</v>
       </c>
       <c r="G55" t="n">
-        <v>0.007535730683387269</v>
+        <v>0.007593969390875394</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1288819873992245</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2283548732106608</v>
+        <v>0.2281109002468591</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.330755925982628</v>
+        <v>-1.33009326393256</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008996192147633855</v>
+        <v>-0.008966285784329142</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1529862559397641</v>
       </c>
       <c r="E57" t="n">
-        <v>0.152661867686432</v>
+        <v>0.1524115986461452</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.337646981695682</v>
+        <v>-1.336988254693418</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04504910012102611</v>
+        <v>-0.0450128976812362</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1791367364905174</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08941463135432774</v>
+        <v>0.08916121427579833</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.316885669485726</v>
+        <v>-1.316267079971055</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07481222768570081</v>
+        <v>-0.07479333945624521</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2062459989023943</v>
       </c>
       <c r="E59" t="n">
-        <v>0.05315710089516641</v>
+        <v>0.05286433333860448</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.327187624634639</v>
+        <v>-1.326572970167771</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1000972708502751</v>
+        <v>-0.1000642164487277</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2332495565500672</v>
       </c>
       <c r="E60" t="n">
-        <v>0.00108540032429705</v>
+        <v>0.0007249499455191924</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.330394688594289</v>
+        <v>-1.32981544955765</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1043927690323046</v>
+        <v>-0.1043770288410916</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2595567543162298</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.03635264447583981</v>
+        <v>-0.03676188944737799</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.310248817860762</v>
+        <v>-1.309676661910169</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1355473295002091</v>
+        <v>-0.1355315893089961</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2850251395875472</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.09045955177055096</v>
+        <v>-0.09086092664648263</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.335335534616052</v>
+        <v>-1.334746064455125</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1427405968845533</v>
+        <v>-0.1427437449227959</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3099332848097455</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1324480858503681</v>
+        <v>-0.1329092734529092</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.375654034408169</v>
+        <v>-1.375044889008226</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1619200198776022</v>
+        <v>-0.1619105757628744</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3349775561762883</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1854563277984114</v>
+        <v>-0.1859851982231684</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.417699233176353</v>
+        <v>-1.417061755432226</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1773658695149258</v>
+        <v>-0.1773690175531684</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.36094368979708</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2372147985641419</v>
+        <v>-0.2377987596581444</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.45032156647487</v>
+        <v>-1.449695106864593</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028272028210857</v>
+        <v>-0.2028287768402071</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.387744564704106</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3039185808866224</v>
+        <v>-0.3045072640379889</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.491607301017027</v>
+        <v>-1.491015469827418</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2083472878794873</v>
+        <v>-0.2083677501280642</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4152783107440686</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.290038880274993</v>
+        <v>-0.290677932038241</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.537711108089485</v>
+        <v>-1.537130295033725</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.24138752325471</v>
+        <v>-0.2414095595224082</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4431895002087453</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3189142610552541</v>
+        <v>-0.3194840559771649</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.570194927705328</v>
+        <v>-1.569540922760427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2517713273979306</v>
+        <v>-0.2517902156273862</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4709009598865096</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3473914149978261</v>
+        <v>-0.3479438957094027</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.630219359886569</v>
+        <v>-1.629539383626167</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2587442321052927</v>
+        <v>-0.2587237698567158</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4984148936261632</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3739608577653817</v>
+        <v>-0.3745086164195944</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.647618567253426</v>
+        <v>-1.646965349318087</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2691799788795162</v>
+        <v>-0.2691547945735754</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5251033378646492</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3819442827486188</v>
+        <v>-0.3824385247527072</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.687133530284119</v>
+        <v>-1.686428369717777</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2880650602968819</v>
+        <v>-0.2880304318762133</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.549966381921406</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3806803453942144</v>
+        <v>-0.3811509771114833</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.720451580034252</v>
+        <v>-1.719719661142847</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.285600146352925</v>
+        <v>-0.2855655179322564</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5717844221920269</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3425513061998265</v>
+        <v>-0.3429747173434564</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.744030386471336</v>
+        <v>-1.743349623201374</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.288604948855488</v>
+        <v>-0.288541988090636</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5903075434589296</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3007862828352341</v>
+        <v>-0.3012191380935917</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.776956505460265</v>
+        <v>-1.776253705922604</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2934765380359137</v>
+        <v>-0.2934072811945764</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6047045205587175</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2387069686911349</v>
+        <v>-0.2390878813184897</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.795530718101173</v>
+        <v>-1.794860185955499</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2980962841569312</v>
+        <v>-0.2979892508566827</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6148349708079741</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.131406085192067</v>
+        <v>-0.1317744056664514</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.803378777439979</v>
+        <v>-1.802719263428154</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2816336181672473</v>
+        <v>-0.2815045485993006</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6199659803896188</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.04618554192660521</v>
+        <v>-0.04649877173174404</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.78965726575004</v>
+        <v>-1.788998538747776</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2682513075979489</v>
+        <v>-0.2681206640108809</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6189988481352195</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08853632868464197</v>
+        <v>0.08824198710895874</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.793379033962355</v>
+        <v>-1.792727390046137</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2415716834919022</v>
+        <v>-0.2413969673694378</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6110063552079587</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2163073308562253</v>
+        <v>0.2160066932040569</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.821461896115042</v>
+        <v>-1.820837010523885</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2247375489895913</v>
+        <v>-0.2245754250200974</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5954550466070699</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3635363574053277</v>
+        <v>0.3632073874089759</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.776331619869108</v>
+        <v>-1.775792518320063</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1987945658323134</v>
+        <v>-0.198619849709849</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.572308737356231</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4927948076465402</v>
+        <v>0.4924957440134931</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.753591765623677</v>
+        <v>-1.75309909763871</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.169834188019502</v>
+        <v>-0.1696736380691294</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5419886276059586</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6729649063662234</v>
+        <v>0.672601307949203</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.712998599494893</v>
+        <v>-1.712555513112247</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1436126034777539</v>
+        <v>-0.1434630716612303</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5052249736269638</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8449737159419626</v>
+        <v>0.8446604861368238</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.641799418561978</v>
+        <v>-1.641436607154518</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.126296819124325</v>
+        <v>-0.126087474581192</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4628812043084661</v>
       </c>
       <c r="E84" t="n">
-        <v>1.02815019118333</v>
+        <v>1.027775574632461</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.559824502724638</v>
+        <v>-1.55956085452182</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1105912563319867</v>
+        <v>-0.1103740416932473</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4165547643253488</v>
       </c>
       <c r="E85" t="n">
-        <v>1.175961604807314</v>
+        <v>1.17555708189314</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.455217552951676</v>
+        <v>-1.454939738576767</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.09158969749964485</v>
+        <v>-0.09132998434463023</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3685286135083468</v>
       </c>
       <c r="E86" t="n">
-        <v>1.336851543310185</v>
+        <v>1.336480074797558</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.337186581102701</v>
+        <v>-1.336956774310992</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06154324649313601</v>
+        <v>-0.0612819593190001</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3214066041750407</v>
       </c>
       <c r="E87" t="n">
-        <v>1.479009080250457</v>
+        <v>1.478571502934735</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.20580005700949</v>
+        <v>-1.205622192848784</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03800693857232683</v>
+        <v>-0.03772991120697791</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2780280206173256</v>
       </c>
       <c r="E88" t="n">
-        <v>1.567497287211739</v>
+        <v>1.56714785496681</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.058574965508191</v>
+        <v>-1.058456914074094</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02370540083618878</v>
+        <v>-0.02343624356644636</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2407999120113383</v>
       </c>
       <c r="E89" t="n">
-        <v>1.673211559436535</v>
+        <v>1.672835368866544</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9109075746338067</v>
+        <v>-0.91087530724182</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0002873726297976011</v>
+        <v>0.0005612519569039208</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2111221919742684</v>
       </c>
       <c r="E90" t="n">
-        <v>1.716544305845943</v>
+        <v>1.716191725562772</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.717559787830594</v>
+        <v>-0.7176227485954461</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0009217023356817783</v>
+        <v>0.001228636064335412</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1902647394494183</v>
       </c>
       <c r="E91" t="n">
-        <v>1.731908306488959</v>
+        <v>1.731651741372187</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5321954260106185</v>
+        <v>-0.5322757009858049</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01632639919553116</v>
+        <v>-0.01606038996403134</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1792637275120906</v>
       </c>
       <c r="E92" t="n">
-        <v>1.703651515223369</v>
+        <v>1.703428004508145</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3674696029091377</v>
+        <v>-0.36758135826675</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01954684231771237</v>
+        <v>-0.01928398112445515</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1784514933977021</v>
       </c>
       <c r="E93" t="n">
-        <v>1.659091033899347</v>
+        <v>1.658919465815125</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.214726787378119</v>
+        <v>-0.2148511348887017</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03372403254326766</v>
+        <v>-0.03350681790452817</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1868801439492804</v>
       </c>
       <c r="E94" t="n">
-        <v>1.559312387780975</v>
+        <v>1.559200632423363</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0754685936592832</v>
+        <v>-0.07562756959053457</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0404498162485855</v>
+        <v>-0.0402121393612691</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2015940477163075</v>
       </c>
       <c r="E95" t="n">
-        <v>1.490006751850985</v>
+        <v>1.489869812187431</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0311837939618088</v>
+        <v>0.03102639204967873</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07503416438180421</v>
+        <v>-0.07483426395339902</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2184776854248905</v>
       </c>
       <c r="E96" t="n">
-        <v>1.405294616761703</v>
+        <v>1.405181287384969</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1138182238109736</v>
+        <v>0.1136309155355388</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1039662098504322</v>
+        <v>-0.1037726054985122</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2346143279071083</v>
       </c>
       <c r="E97" t="n">
-        <v>1.324796130860143</v>
+        <v>1.324700115693744</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1770229616268027</v>
+        <v>0.1768325053131253</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1241435609663857</v>
+        <v>-0.1239294943658888</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2477373814157798</v>
       </c>
       <c r="E98" t="n">
-        <v>1.230709137884394</v>
+        <v>1.230591086450297</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2105102184324749</v>
+        <v>0.2102977258510993</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1444027610766468</v>
+        <v>-0.1442044346673629</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2551234202410623</v>
       </c>
       <c r="E99" t="n">
-        <v>1.145250917731616</v>
+        <v>1.14509823787685</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2310133915065376</v>
+        <v>0.2308134910781324</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1467134211467162</v>
+        <v>-0.1465166687565536</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2592442843979063</v>
       </c>
       <c r="E100" t="n">
-        <v>1.056816227420458</v>
+        <v>1.05667299168042</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2430121392682128</v>
+        <v>0.2428122388398076</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1611456024699222</v>
+        <v>-0.1609535721371236</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2641978655768728</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9663242941177604</v>
+        <v>0.9661779103394794</v>
       </c>
       <c r="F101" t="n">
-        <v>0.238678864627272</v>
+        <v>0.2384191514722574</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1752976083895367</v>
+        <v>-0.1750882638464037</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2798581708518582</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9047801464749036</v>
+        <v>0.9046542249451994</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2445656961409365</v>
+        <v>0.244317001119771</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2013554949426696</v>
+        <v>-0.2011209660935958</v>
       </c>
     </row>
   </sheetData>
